--- a/Supplementary Data 4.2.xlsx
+++ b/Supplementary Data 4.2.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Brauer\Dropbox\Emily Hartman Nterm Extensions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehartman/Dropbox/Lab Members/Emily/Thesis/Chapter 4 Nterm/Supplementary Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3864A40D-CB4C-4881-B31B-785679ADA397}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3F3AB6-C84F-0A45-974C-67DFAA256F54}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24540" windowHeight="14060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NNK Substitution" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="101">
   <si>
     <t>#</t>
   </si>
@@ -281,12 +286,84 @@
   <si>
     <t>N87C Quikchange - rev</t>
   </si>
+  <si>
+    <t>aGGTCTCaCATG CCTAATTATcgc GCAAAATTAGAGACTGTTACTTTAGGTAAC</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCATG CCTTATAATcgc GCAAAATTAGAGACTGTTACTTTAGGTAAC</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCATG CCTattacccgc GCAAAATTAGAGACTGTTACTTTAGGTAAC</t>
+  </si>
+  <si>
+    <t>aGGTCTCaTTTAATACGCTGGGTTCAGCTGATC</t>
+  </si>
+  <si>
+    <t>PNYR - QBeta</t>
+  </si>
+  <si>
+    <t>PYQR - QBeta</t>
+  </si>
+  <si>
+    <t>PITR - QBeta</t>
+  </si>
+  <si>
+    <t>Reverse - QBeta</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCATGGGGAACGCTACTCGTgcttctaactttactcagttcgttctcgtcgacaatggc</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCATGCCTAACGCTACTCGTgcttctaactttactcagttcgttctcgtcgacaatggc</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCATGGGTCCGAACGCTACTgcttctaactttactcagttcgttctcgtcgacaatggc</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCATGGGTAACGCTACTgcttctaactttactcagttcgttctcgtcgacaatggc</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCATGCCGAACGCTACTgcttctaactttactcagttcgttctcgtcgacaatggc</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCATGCCTAACGGTACTgcttctaactttactcagttcgttctcgtcgacaatggc</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCATGAACGGTACTgcttctaactttactcagttcgttctcgtcgacaatggc</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCATGAACGCTACTgcttctaactttactcagttcgttctcgtcgacaatggc</t>
+  </si>
+  <si>
+    <t>GNATR - MS2</t>
+  </si>
+  <si>
+    <t>PNATR - MS2</t>
+  </si>
+  <si>
+    <t>GPNAT - MS2</t>
+  </si>
+  <si>
+    <t>GNAT - MS2</t>
+  </si>
+  <si>
+    <t>PNAT - MS2</t>
+  </si>
+  <si>
+    <t>PNGT - MS2</t>
+  </si>
+  <si>
+    <t>NGT - MS2</t>
+  </si>
+  <si>
+    <t>NAT - MS2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -299,21 +376,19 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -343,14 +418,8 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
@@ -360,14 +429,24 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <i/>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -391,29 +470,29 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -700,25 +779,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="88" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.3125" customWidth="1"/>
-    <col min="2" max="2" width="133.6875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="133.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.4375" customWidth="1"/>
+    <col min="5" max="5" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -734,21 +817,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A3" s="4">
+    <row r="3" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3" si="0">LEN(B3)</f>
         <v>63</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="2"/>
@@ -765,21 +848,21 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A4" s="4">
+    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2">
         <f>LEN(B4)</f>
         <v>70</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="2"/>
@@ -796,10 +879,14 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -814,8 +901,8 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -844,8 +931,8 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A7">
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -875,11 +962,11 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A8">
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -906,8 +993,8 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A9">
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -937,8 +1024,8 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A10">
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -968,8 +1055,8 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A11">
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -999,8 +1086,8 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A12">
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1030,8 +1117,8 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A13">
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1061,8 +1148,8 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A14">
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1092,8 +1179,8 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A15">
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1123,8 +1210,8 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A16">
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1154,8 +1241,8 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A17">
+    <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1172,21 +1259,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A18">
+    <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="2">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="2"/>
@@ -1203,21 +1290,21 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A19">
+    <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="2">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="2"/>
@@ -1234,21 +1321,21 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A20">
+    <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="2">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="2"/>
@@ -1265,21 +1352,21 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A21">
+    <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="2">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="2"/>
@@ -1296,21 +1383,21 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A22">
+    <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <v>18</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="2">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F22" s="2"/>
@@ -1327,21 +1414,21 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A23">
+    <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
         <v>19</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="2">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>51</v>
       </c>
       <c r="F23" s="2"/>
@@ -1358,21 +1445,21 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A24">
+    <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
         <v>20</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="2">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F24" s="2"/>
@@ -1389,21 +1476,21 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A25">
+    <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
         <v>21</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="2">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F25" s="2"/>
@@ -1420,21 +1507,21 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A26">
+    <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="2">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F26" s="2"/>
@@ -1451,21 +1538,21 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A27">
+    <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="2">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F27" s="2"/>
@@ -1482,21 +1569,21 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A28">
+    <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="2">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="2"/>
@@ -1513,10 +1600,14 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1531,7 +1622,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1561,21 +1652,21 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>25</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="2">
         <f>LEN(B31)</f>
         <v>57</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F31" s="2"/>
@@ -1592,21 +1683,21 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>26</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" ref="D32:D40" si="2">LEN(B32)</f>
+        <f t="shared" ref="D32:D44" si="2">LEN(B32)</f>
         <v>57</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F32" s="2"/>
@@ -1623,21 +1714,21 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>27</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F33" s="2"/>
@@ -1654,21 +1745,21 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>28</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="F34" s="2"/>
@@ -1685,21 +1776,21 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>29</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F35" s="2"/>
@@ -1716,21 +1807,21 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
     </row>
-    <row r="36" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>30</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F36" s="2"/>
@@ -1747,21 +1838,21 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>31</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F37" s="2"/>
@@ -1778,21 +1869,21 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
     </row>
-    <row r="38" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>32</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F38" s="2"/>
@@ -1809,21 +1900,21 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>33</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F39" s="2"/>
@@ -1840,21 +1931,21 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
     </row>
-    <row r="40" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>34</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F40" s="2"/>
@@ -1871,12 +1962,23 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+    <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1891,12 +1993,23 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+    <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -1911,12 +2024,23 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+    <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>37</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1931,12 +2055,23 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+    <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>38</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -1951,12 +2086,22 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+    <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>39</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2">
+        <v>66</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1971,12 +2116,22 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+    <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>40</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2">
+        <v>66</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -1991,12 +2146,22 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+    <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>41</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2">
+        <v>66</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2011,12 +2176,22 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+    <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>42</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2">
+        <v>63</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2031,12 +2206,22 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+    <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>43</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2">
+        <v>63</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -2051,12 +2236,22 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
-    <row r="50" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+    <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>44</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2">
+        <v>63</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -2071,12 +2266,22 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
     </row>
-    <row r="51" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A51" s="6"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+    <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>45</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2">
+        <v>60</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -2091,12 +2296,22 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
     </row>
-    <row r="52" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A52" s="2"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+    <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>46</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2">
+        <v>60</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -2111,7 +2326,7 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
     </row>
-    <row r="53" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
@@ -2131,7 +2346,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
@@ -2151,7 +2366,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
@@ -2171,7 +2386,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
@@ -2191,7 +2406,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
@@ -2211,7 +2426,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
@@ -2231,7 +2446,7 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
     </row>
-    <row r="59" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
@@ -2251,7 +2466,7 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
     </row>
-    <row r="60" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
@@ -2271,7 +2486,7 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
     </row>
-    <row r="61" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2"/>
@@ -2291,7 +2506,7 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
     </row>
-    <row r="62" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
@@ -2311,7 +2526,7 @@
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
     </row>
-    <row r="63" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
@@ -2331,7 +2546,7 @@
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
     </row>
-    <row r="64" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
@@ -2351,7 +2566,7 @@
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
     </row>
-    <row r="65" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
@@ -2371,7 +2586,7 @@
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
     </row>
-    <row r="66" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
@@ -2391,7 +2606,7 @@
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
     </row>
-    <row r="67" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
@@ -2411,7 +2626,7 @@
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
     </row>
-    <row r="68" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -2431,7 +2646,7 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
     </row>
-    <row r="69" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -2451,7 +2666,7 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
     </row>
-    <row r="70" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -2471,7 +2686,7 @@
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
     </row>
-    <row r="71" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2491,7 +2706,7 @@
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
     </row>
-    <row r="72" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2511,7 +2726,7 @@
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
     </row>
-    <row r="73" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2531,7 +2746,7 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
     </row>
-    <row r="74" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2551,7 +2766,7 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
     </row>
-    <row r="75" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2571,7 +2786,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2591,7 +2806,7 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
     </row>
-    <row r="77" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2611,7 +2826,7 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
     </row>
-    <row r="78" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2631,7 +2846,7 @@
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
     </row>
-    <row r="79" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2651,7 +2866,7 @@
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
     </row>
-    <row r="80" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2671,7 +2886,7 @@
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
     </row>
-    <row r="81" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2691,7 +2906,7 @@
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
     </row>
-    <row r="82" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2711,7 +2926,7 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
     </row>
-    <row r="83" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2731,7 +2946,7 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
     </row>
-    <row r="84" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2751,7 +2966,7 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
     </row>
-    <row r="85" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2771,7 +2986,7 @@
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
     </row>
-    <row r="86" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2791,7 +3006,7 @@
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
     </row>
-    <row r="87" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2811,7 +3026,7 @@
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
     </row>
-    <row r="88" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2831,7 +3046,7 @@
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
     </row>
-    <row r="89" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2851,7 +3066,7 @@
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
     </row>
-    <row r="90" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2871,7 +3086,7 @@
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
     </row>
-    <row r="91" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2891,7 +3106,7 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
     </row>
-    <row r="92" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2911,7 +3126,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
     </row>
-    <row r="93" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2931,8 +3146,8 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
     </row>
-    <row r="94" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A94" s="5"/>
+    <row r="94" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="4"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -2947,7 +3162,7 @@
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
     </row>
-    <row r="95" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2967,7 +3182,7 @@
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
     </row>
-    <row r="96" spans="1:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -2986,7 +3201,7 @@
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
     </row>
-    <row r="97" spans="2:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -3005,7 +3220,7 @@
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
     </row>
-    <row r="98" spans="2:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -3024,7 +3239,7 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
     </row>
-    <row r="99" spans="2:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -3043,7 +3258,7 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
     </row>
-    <row r="100" spans="2:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -3062,7 +3277,7 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
     </row>
-    <row r="101" spans="2:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -3081,7 +3296,7 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
     </row>
-    <row r="102" spans="2:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -3100,7 +3315,7 @@
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
     </row>
-    <row r="103" spans="2:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -3119,7 +3334,7 @@
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
     </row>
-    <row r="104" spans="2:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -3138,7 +3353,7 @@
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
     </row>
-    <row r="105" spans="2:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -3157,7 +3372,7 @@
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
     </row>
-    <row r="106" spans="2:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -3172,7 +3387,7 @@
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
     </row>
-    <row r="107" spans="2:18" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="F107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -3186,114 +3401,114 @@
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
     </row>
-    <row r="125" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="125" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="126" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F126" s="1"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="127" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="128" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="129" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="130" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="131" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="132" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="133" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="134" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="135" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="136" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="137" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="138" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="139" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="140" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="141" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="142" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="143" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="144" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="145" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="146" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="147" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="148" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="149" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="150" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="6:7" ht="16.899999999999999" x14ac:dyDescent="0.5">
+    <row r="151" spans="6:7" ht="17" x14ac:dyDescent="0.2">
       <c r="F151" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" fitToHeight="2" orientation="portrait" r:id="rId1"/>
 </worksheet>
